--- a/Jogos_da_Semana_FlashScore_2025-03-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-16.xlsx
@@ -978,22 +978,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1026,10 +1026,10 @@
         <v>2.75</v>
       </c>
       <c r="W4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y4" t="n">
         <v>13</v>
@@ -1041,10 +1041,10 @@
         <v>15</v>
       </c>
       <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
         <v>41</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>34</v>
       </c>
       <c r="AD4" t="n">
         <v>41</v>
@@ -1065,16 +1065,16 @@
         <v>301</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL4" t="n">
         <v>9.5</v>
       </c>
       <c r="AM4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN4" t="n">
         <v>17</v>
@@ -1268,46 +1268,46 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J6" t="n">
         <v>2.25</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="S6" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U6" t="n">
         <v>1.44</v>
@@ -1316,13 +1316,13 @@
         <v>2.63</v>
       </c>
       <c r="W6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X6" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z6" t="n">
         <v>7</v>
@@ -1340,7 +1340,7 @@
         <v>29</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF6" t="n">
         <v>7</v>
@@ -1352,7 +1352,7 @@
         <v>67</v>
       </c>
       <c r="AI6" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AJ6" t="n">
         <v>12</v>
@@ -1409,16 +1409,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K7" t="n">
         <v>2.3</v>
@@ -1427,28 +1427,28 @@
         <v>3.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U7" t="n">
         <v>1.3</v>
@@ -1469,10 +1469,10 @@
         <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
         <v>17</v>
@@ -1505,7 +1505,7 @@
         <v>11</v>
       </c>
       <c r="AM7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN7" t="n">
         <v>21</v>
@@ -1514,10 +1514,10 @@
         <v>26</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
@@ -1554,13 +1554,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
         <v>3.25</v>
@@ -1611,7 +1611,7 @@
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
         <v>10</v>
@@ -1641,19 +1641,19 @@
         <v>251</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
         <v>13</v>
       </c>
       <c r="AL8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
         <v>34</v>
@@ -1695,19 +1695,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H9" t="n">
         <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K9" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L9" t="n">
         <v>6</v>
@@ -1719,10 +1719,10 @@
         <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
         <v>1.5</v>
@@ -1731,10 +1731,10 @@
         <v>2.63</v>
       </c>
       <c r="S9" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="U9" t="n">
         <v>1.25</v>
@@ -1743,28 +1743,28 @@
         <v>3.75</v>
       </c>
       <c r="W9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA9" t="n">
         <v>8.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC9" t="n">
         <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -1799,8 +1799,12 @@
       <c r="AO9" t="n">
         <v>41</v>
       </c>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
+      <c r="AP9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>2.07</v>
+      </c>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
     </row>
@@ -1981,13 +1985,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J11" t="n">
         <v>2.63</v>
@@ -1999,10 +2003,10 @@
         <v>3.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
         <v>1.22</v>
@@ -2011,10 +2015,10 @@
         <v>4.33</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S11" t="n">
         <v>2.75</v>
@@ -2023,10 +2027,10 @@
         <v>1.44</v>
       </c>
       <c r="U11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W11" t="n">
         <v>1.62</v>
@@ -2068,13 +2072,13 @@
         <v>151</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>19</v>
       </c>
       <c r="AL11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM11" t="n">
         <v>41</v>
@@ -2122,10 +2126,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
         <v>2.2</v>
@@ -2134,7 +2138,7 @@
         <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
         <v>2.88</v>
@@ -2146,22 +2150,22 @@
         <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="S12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U12" t="n">
         <v>1.36</v>
@@ -2170,13 +2174,13 @@
         <v>3</v>
       </c>
       <c r="W12" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
         <v>17</v>
@@ -2194,7 +2198,7 @@
         <v>29</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
         <v>6.5</v>
@@ -2209,10 +2213,10 @@
         <v>151</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL12" t="n">
         <v>9</v>
@@ -2722,22 +2726,22 @@
         <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U16" t="n">
         <v>1.53</v>
@@ -2843,10 +2847,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
         <v>2.63</v>
@@ -2858,7 +2862,7 @@
         <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -2873,10 +2877,10 @@
         <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R17" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S17" t="n">
         <v>3.4</v>
@@ -2897,7 +2901,7 @@
         <v>2.05</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z17" t="n">
         <v>13</v>
@@ -3846,22 +3850,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H24" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I24" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K24" t="n">
         <v>1.83</v>
       </c>
       <c r="L24" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M24" t="n">
         <v>1.14</v>
@@ -3894,22 +3898,22 @@
         <v>2.1</v>
       </c>
       <c r="W24" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="X24" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Y24" t="n">
         <v>5.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA24" t="n">
         <v>11</v>
       </c>
       <c r="AB24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC24" t="n">
         <v>26</v>
@@ -3927,14 +3931,14 @@
         <v>21</v>
       </c>
       <c r="AH24" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="n">
         <v>7.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
         <v>15</v>
@@ -3985,16 +3989,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I25" t="n">
         <v>3.5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K25" t="n">
         <v>1.83</v>
@@ -4003,40 +4007,40 @@
         <v>4.33</v>
       </c>
       <c r="M25" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S25" t="n">
+        <v>6</v>
+      </c>
+      <c r="T25" t="n">
         <v>1.13</v>
       </c>
-      <c r="N25" t="n">
-        <v>6</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.14</v>
-      </c>
       <c r="U25" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W25" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="X25" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="Y25" t="n">
         <v>5.5</v>
@@ -4045,19 +4049,19 @@
         <v>9.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD25" t="n">
         <v>41</v>
       </c>
       <c r="AE25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF25" t="n">
         <v>6</v>
@@ -4070,7 +4074,7 @@
       </c>
       <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK25" t="n">
         <v>15</v>
@@ -4082,7 +4086,7 @@
         <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO25" t="n">
         <v>51</v>
@@ -4131,16 +4135,16 @@
         <v>3.1</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K26" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L26" t="n">
         <v>2.75</v>
@@ -4158,16 +4162,16 @@
         <v>4.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R26" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S26" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T26" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U26" t="n">
         <v>1.3</v>
@@ -4185,10 +4189,10 @@
         <v>13</v>
       </c>
       <c r="Z26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB26" t="n">
         <v>34</v>
@@ -4227,16 +4231,16 @@
         <v>21</v>
       </c>
       <c r="AN26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO26" t="n">
         <v>21</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
@@ -4279,13 +4283,13 @@
         <v>2.9</v>
       </c>
       <c r="I27" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J27" t="n">
         <v>3.25</v>
       </c>
       <c r="K27" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L27" t="n">
         <v>4</v>
@@ -4297,10 +4301,10 @@
         <v>6.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P27" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q27" t="n">
         <v>2.5</v>
@@ -4330,7 +4334,7 @@
         <v>6.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA27" t="n">
         <v>10</v>
@@ -4366,28 +4370,28 @@
         <v>15</v>
       </c>
       <c r="AL27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM27" t="n">
         <v>34</v>
       </c>
       <c r="AN27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO27" t="n">
         <v>41</v>
       </c>
       <c r="AP27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="28">
@@ -4422,22 +4426,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H28" t="n">
         <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J28" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K28" t="n">
         <v>2.05</v>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
@@ -4452,10 +4456,10 @@
         <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R28" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S28" t="n">
         <v>4</v>
@@ -4464,16 +4468,16 @@
         <v>1.22</v>
       </c>
       <c r="U28" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V28" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W28" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X28" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y28" t="n">
         <v>6</v>
@@ -4494,7 +4498,7 @@
         <v>34</v>
       </c>
       <c r="AE28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF28" t="n">
         <v>7</v>
@@ -4506,13 +4510,13 @@
         <v>67</v>
       </c>
       <c r="AI28" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AJ28" t="n">
         <v>11</v>
       </c>
       <c r="AK28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL28" t="n">
         <v>15</v>
@@ -4524,7 +4528,7 @@
         <v>41</v>
       </c>
       <c r="AO28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP28" t="n">
         <v>3.25</v>
@@ -4533,10 +4537,10 @@
         <v>1.35</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.26</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="29">
@@ -4634,7 +4638,7 @@
         <v>9</v>
       </c>
       <c r="AB29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC29" t="n">
         <v>17</v>
@@ -4744,16 +4748,16 @@
         <v>7</v>
       </c>
       <c r="O30" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P30" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R30" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S30" t="n">
         <v>5.5</v>
@@ -4831,10 +4835,10 @@
         <v>1.21</v>
       </c>
       <c r="AR30" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="31">
@@ -4869,22 +4873,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="H31" t="n">
         <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="J31" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L31" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
         <v>1.13</v>
@@ -4923,22 +4927,22 @@
         <v>1.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AA31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB31" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE31" t="n">
         <v>5.5</v>
@@ -4956,19 +4960,19 @@
         <v>101</v>
       </c>
       <c r="AJ31" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK31" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AL31" t="n">
         <v>13</v>
       </c>
       <c r="AM31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO31" t="n">
         <v>51</v>
@@ -5578,7 +5582,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H36" t="n">
         <v>3.2</v>
@@ -5723,10 +5727,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="I37" t="n">
         <v>4.33</v>
@@ -5864,7 +5868,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H38" t="n">
         <v>3.2</v>
@@ -6762,10 +6766,10 @@
         <v>2.6</v>
       </c>
       <c r="S44" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T44" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U44" t="n">
         <v>1.25</v>
@@ -6892,7 +6896,7 @@
         <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O45" t="n">
         <v>1.18</v>
@@ -6901,10 +6905,10 @@
         <v>4.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R45" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S45" t="n">
         <v>2.5</v>
@@ -6976,10 +6980,10 @@
         <v>51</v>
       </c>
       <c r="AP45" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr"/>
@@ -7862,64 +7866,64 @@
         </is>
       </c>
       <c r="G52" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L52" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N52" t="n">
+        <v>8</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W52" t="n">
         <v>2</v>
       </c>
-      <c r="H52" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N52" t="n">
-        <v>10</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P52" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R52" t="n">
+      <c r="X52" t="n">
         <v>1.75</v>
       </c>
-      <c r="S52" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U52" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V52" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W52" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X52" t="n">
-        <v>1.91</v>
-      </c>
       <c r="Y52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z52" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA52" t="n">
         <v>9</v>
@@ -7931,37 +7935,37 @@
         <v>17</v>
       </c>
       <c r="AD52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF52" t="n">
         <v>6.5</v>
       </c>
       <c r="AG52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH52" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI52" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AJ52" t="n">
         <v>10</v>
       </c>
       <c r="AK52" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM52" t="n">
         <v>41</v>
       </c>
       <c r="AN52" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO52" t="n">
         <v>41</v>
@@ -7974,7 +7978,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>dWJrnuFa</t>
+          <t>lhy2Z1Vg</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7994,31 +7998,31 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Beerschot VA</t>
+          <t>Club Brugge KV</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.9</v>
+        <v>1.42</v>
       </c>
       <c r="H53" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="I53" t="n">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="J53" t="n">
-        <v>3.4</v>
+        <v>1.91</v>
       </c>
       <c r="K53" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L53" t="n">
-        <v>2.88</v>
+        <v>6.5</v>
       </c>
       <c r="M53" t="n">
         <v>1.03</v>
@@ -8033,10 +8037,10 @@
         <v>4.33</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R53" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S53" t="n">
         <v>2.63</v>
@@ -8045,81 +8049,77 @@
         <v>1.44</v>
       </c>
       <c r="U53" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V53" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W53" t="n">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="X53" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="Y53" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC53" t="n">
         <v>12</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>21</v>
       </c>
       <c r="AD53" t="n">
         <v>26</v>
       </c>
       <c r="AE53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF53" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AG53" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AH53" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AI53" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="AJ53" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AK53" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AL53" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AM53" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="AN53" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AO53" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP53" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AQ53" t="n">
-        <v>1.8</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="AP53" t="inlineStr"/>
+      <c r="AQ53" t="inlineStr"/>
       <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>lhy2Z1Vg</t>
+          <t>ULZ3gNMP</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -8139,118 +8139,118 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Club Brugge KV</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H54" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="I54" t="n">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="J54" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="K54" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L54" t="n">
-        <v>7</v>
+        <v>4.33</v>
       </c>
       <c r="M54" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O54" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P54" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="R54" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="S54" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="T54" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="U54" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V54" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W54" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="X54" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="Y54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z54" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AA54" t="n">
         <v>8.5</v>
       </c>
       <c r="AB54" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AC54" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE54" t="n">
         <v>12</v>
       </c>
-      <c r="AD54" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE54" t="n">
+      <c r="AF54" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG54" t="n">
         <v>13</v>
       </c>
-      <c r="AF54" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>19</v>
-      </c>
       <c r="AH54" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI54" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AJ54" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AK54" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM54" t="n">
         <v>41</v>
       </c>
-      <c r="AL54" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>81</v>
-      </c>
       <c r="AN54" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AO54" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AP54" t="inlineStr"/>
       <c r="AQ54" t="inlineStr"/>
@@ -8260,7 +8260,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ULZ3gNMP</t>
+          <t>426arcEO</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -8280,37 +8280,37 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>KV Mechelen</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>Dender</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="H55" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I55" t="n">
         <v>3.7</v>
       </c>
-      <c r="I55" t="n">
-        <v>4.2</v>
-      </c>
       <c r="J55" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K55" t="n">
         <v>2.25</v>
       </c>
       <c r="L55" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
         <v>1.04</v>
       </c>
       <c r="N55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O55" t="n">
         <v>1.22</v>
@@ -8319,10 +8319,10 @@
         <v>4</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R55" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S55" t="n">
         <v>2.75</v>
@@ -8331,31 +8331,31 @@
         <v>1.4</v>
       </c>
       <c r="U55" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V55" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W55" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X55" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Y55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA55" t="n">
         <v>8.5</v>
       </c>
       <c r="AB55" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC55" t="n">
         <v>15</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>13</v>
       </c>
       <c r="AD55" t="n">
         <v>23</v>
@@ -8373,13 +8373,13 @@
         <v>41</v>
       </c>
       <c r="AI55" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ55" t="n">
         <v>13</v>
       </c>
       <c r="AK55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL55" t="n">
         <v>13</v>
@@ -8388,7 +8388,7 @@
         <v>41</v>
       </c>
       <c r="AN55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO55" t="n">
         <v>34</v>
@@ -8401,7 +8401,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>426arcEO</t>
+          <t>Io8ipJqC</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -8421,91 +8421,91 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>KV Mechelen</t>
+          <t>Leuven</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Dender</t>
+          <t>St. Truiden</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="H56" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="I56" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="J56" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="K56" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M56" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O56" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="P56" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="R56" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V56" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X56" t="n">
         <v>2</v>
       </c>
-      <c r="S56" t="n">
-        <v>3</v>
-      </c>
-      <c r="T56" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U56" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V56" t="n">
-        <v>3</v>
-      </c>
-      <c r="W56" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X56" t="n">
-        <v>2.1</v>
-      </c>
       <c r="Y56" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE56" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z56" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>12</v>
-      </c>
       <c r="AF56" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AG56" t="n">
         <v>13</v>
@@ -8514,22 +8514,22 @@
         <v>41</v>
       </c>
       <c r="AI56" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ56" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AK56" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AL56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM56" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN56" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO56" t="n">
         <v>34</v>
@@ -8542,7 +8542,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Io8ipJqC</t>
+          <t>dWJrnuFa</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8552,7 +8552,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:34</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -8562,121 +8562,125 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Leuven</t>
+          <t>Beerschot VA</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>St. Truiden</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H57" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="I57" t="n">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="J57" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K57" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L57" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N57" t="n">
+        <v>15</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V57" t="n">
         <v>3.4</v>
       </c>
-      <c r="M57" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N57" t="n">
-        <v>10</v>
-      </c>
-      <c r="O57" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P57" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R57" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S57" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T57" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U57" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V57" t="n">
-        <v>2.75</v>
-      </c>
       <c r="W57" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="X57" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="Y57" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Z57" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AA57" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB57" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD57" t="n">
         <v>26</v>
       </c>
-      <c r="AC57" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>29</v>
-      </c>
       <c r="AE57" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AF57" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AG57" t="n">
         <v>12</v>
       </c>
       <c r="AH57" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI57" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ57" t="n">
         <v>10</v>
       </c>
       <c r="AK57" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN57" t="n">
         <v>15</v>
       </c>
-      <c r="AL57" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN57" t="n">
+      <c r="AO57" t="n">
         <v>21</v>
       </c>
-      <c r="AO57" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP57" t="inlineStr"/>
-      <c r="AQ57" t="inlineStr"/>
+      <c r="AP57" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>1.8</v>
+      </c>
       <c r="AR57" t="inlineStr"/>
       <c r="AS57" t="inlineStr"/>
     </row>
@@ -9288,13 +9292,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H62" t="n">
         <v>3.4</v>
       </c>
       <c r="I62" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J62" t="n">
         <v>3</v>
@@ -9303,13 +9307,13 @@
         <v>2.2</v>
       </c>
       <c r="L62" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M62" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O62" t="n">
         <v>1.25</v>
@@ -9360,7 +9364,7 @@
         <v>26</v>
       </c>
       <c r="AE62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF62" t="n">
         <v>6.5</v>
@@ -9586,16 +9590,16 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H64" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I64" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J64" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K64" t="n">
         <v>2.3</v>
@@ -9640,7 +9644,7 @@
         <v>2.25</v>
       </c>
       <c r="Y64" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z64" t="n">
         <v>11</v>
@@ -9649,7 +9653,7 @@
         <v>9</v>
       </c>
       <c r="AB64" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC64" t="n">
         <v>15</v>
@@ -9661,25 +9665,25 @@
         <v>13</v>
       </c>
       <c r="AF64" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG64" t="n">
         <v>12</v>
       </c>
       <c r="AH64" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI64" t="n">
         <v>126</v>
       </c>
       <c r="AJ64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK64" t="n">
         <v>21</v>
       </c>
       <c r="AL64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM64" t="n">
         <v>41</v>
@@ -9735,22 +9739,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="H65" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I65" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="J65" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K65" t="n">
         <v>2</v>
       </c>
       <c r="L65" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M65" t="n">
         <v>1.08</v>
@@ -9759,10 +9763,10 @@
         <v>8</v>
       </c>
       <c r="O65" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P65" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q65" t="n">
         <v>2.35</v>
@@ -9771,37 +9775,37 @@
         <v>1.57</v>
       </c>
       <c r="S65" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T65" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="U65" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V65" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W65" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X65" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y65" t="n">
         <v>5.5</v>
       </c>
       <c r="Z65" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA65" t="n">
         <v>9</v>
       </c>
       <c r="AB65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC65" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD65" t="n">
         <v>34</v>
@@ -9813,7 +9817,7 @@
         <v>6.5</v>
       </c>
       <c r="AG65" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH65" t="n">
         <v>67</v>
@@ -9822,10 +9826,10 @@
         <v>101</v>
       </c>
       <c r="AJ65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK65" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL65" t="n">
         <v>17</v>
@@ -9846,10 +9850,10 @@
         <v>1.27</v>
       </c>
       <c r="AR65" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="66">
@@ -9884,16 +9888,16 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H66" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I66" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J66" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K66" t="n">
         <v>2</v>
@@ -9926,10 +9930,10 @@
         <v>1.17</v>
       </c>
       <c r="U66" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V66" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W66" t="n">
         <v>2.38</v>
@@ -9965,19 +9969,19 @@
         <v>23</v>
       </c>
       <c r="AH66" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI66" t="n">
         <v>101</v>
       </c>
       <c r="AJ66" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK66" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL66" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM66" t="n">
         <v>67</v>
@@ -9986,7 +9990,7 @@
         <v>51</v>
       </c>
       <c r="AO66" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP66" t="n">
         <v>3.95</v>
@@ -10036,7 +10040,7 @@
         <v>1.5</v>
       </c>
       <c r="H67" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I67" t="n">
         <v>7.5</v>
@@ -10051,10 +10055,10 @@
         <v>7</v>
       </c>
       <c r="M67" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O67" t="n">
         <v>1.33</v>
@@ -10063,10 +10067,10 @@
         <v>3.25</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R67" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S67" t="n">
         <v>3.75</v>
@@ -10081,10 +10085,10 @@
         <v>2.63</v>
       </c>
       <c r="W67" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X67" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y67" t="n">
         <v>5.5</v>
@@ -10126,7 +10130,7 @@
         <v>34</v>
       </c>
       <c r="AL67" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM67" t="n">
         <v>81</v>
@@ -10135,7 +10139,7 @@
         <v>51</v>
       </c>
       <c r="AO67" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP67" t="n">
         <v>3</v>
@@ -10147,7 +10151,7 @@
         <v>1.57</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="68">
@@ -10203,7 +10207,7 @@
         <v>1.08</v>
       </c>
       <c r="N68" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O68" t="n">
         <v>1.44</v>
@@ -10476,28 +10480,28 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H70" t="n">
         <v>3</v>
       </c>
       <c r="I70" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="J70" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="K70" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L70" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M70" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N70" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O70" t="n">
         <v>1.53</v>
@@ -10530,19 +10534,19 @@
         <v>1.57</v>
       </c>
       <c r="Y70" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z70" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AA70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB70" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC70" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD70" t="n">
         <v>41</v>
@@ -10563,30 +10567,30 @@
         <v>1250</v>
       </c>
       <c r="AJ70" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AK70" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM70" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO70" t="n">
         <v>41</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO70" t="n">
-        <v>51</v>
       </c>
       <c r="AP70" t="inlineStr"/>
       <c r="AQ70" t="inlineStr"/>
       <c r="AR70" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="71">
@@ -10762,28 +10766,28 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="H72" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I72" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="J72" t="n">
-        <v>4.85</v>
+        <v>5.3</v>
       </c>
       <c r="K72" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L72" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M72" t="n">
         <v>1.08</v>
       </c>
       <c r="N72" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="O72" t="n">
         <v>1.36</v>
@@ -10807,64 +10811,64 @@
         <v>1.42</v>
       </c>
       <c r="V72" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="W72" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="X72" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y72" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="Z72" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA72" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AB72" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AC72" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD72" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AE72" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AF72" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AG72" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AH72" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI72" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AJ72" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AK72" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="AL72" t="n">
         <v>8.75</v>
       </c>
       <c r="AM72" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AN72" t="n">
         <v>15.5</v>
       </c>
-      <c r="AN72" t="n">
-        <v>16</v>
-      </c>
       <c r="AO72" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP72" t="inlineStr"/>
       <c r="AQ72" t="inlineStr"/>
@@ -10903,22 +10907,22 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="H73" t="n">
         <v>3.3</v>
       </c>
       <c r="I73" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="J73" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K73" t="n">
         <v>2.1</v>
       </c>
       <c r="L73" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="M73" t="n">
         <v>1.06</v>
@@ -10939,40 +10943,40 @@
         <v>1.95</v>
       </c>
       <c r="S73" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="T73" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="U73" t="n">
         <v>1.4</v>
       </c>
       <c r="V73" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="W73" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X73" t="n">
         <v>2.18</v>
       </c>
       <c r="Y73" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="Z73" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AA73" t="n">
         <v>10.25</v>
       </c>
       <c r="AB73" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC73" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AD73" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE73" t="n">
         <v>8</v>
@@ -10984,28 +10988,28 @@
         <v>13</v>
       </c>
       <c r="AH73" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI73" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AJ73" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AK73" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AL73" t="n">
         <v>10</v>
       </c>
       <c r="AM73" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN73" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO73" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AP73" t="inlineStr"/>
       <c r="AQ73" t="inlineStr"/>
@@ -11467,28 +11471,28 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H77" t="n">
         <v>5.25</v>
       </c>
       <c r="I77" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J77" t="n">
         <v>1.73</v>
       </c>
       <c r="K77" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L77" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M77" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N77" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O77" t="n">
         <v>1.25</v>
@@ -11497,10 +11501,10 @@
         <v>3.75</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R77" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S77" t="n">
         <v>3</v>
@@ -11509,10 +11513,10 @@
         <v>1.36</v>
       </c>
       <c r="U77" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V77" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W77" t="n">
         <v>2.38</v>
@@ -11521,7 +11525,7 @@
         <v>1.53</v>
       </c>
       <c r="Y77" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z77" t="n">
         <v>5.5</v>
@@ -11548,19 +11552,19 @@
         <v>26</v>
       </c>
       <c r="AH77" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI77" t="n">
         <v>501</v>
       </c>
       <c r="AJ77" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK77" t="n">
         <v>51</v>
       </c>
       <c r="AL77" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM77" t="n">
         <v>151</v>
@@ -11783,7 +11787,7 @@
         <v>3.75</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R79" t="n">
         <v>2</v>
@@ -12194,10 +12198,10 @@
         <v>2.2</v>
       </c>
       <c r="M82" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N82" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O82" t="n">
         <v>1.3</v>
@@ -12206,7 +12210,7 @@
         <v>3.4</v>
       </c>
       <c r="Q82" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R82" t="n">
         <v>1.85</v>
@@ -12230,7 +12234,7 @@
         <v>1.75</v>
       </c>
       <c r="Y82" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z82" t="n">
         <v>26</v>
@@ -12335,28 +12339,28 @@
         <v>2.4</v>
       </c>
       <c r="M83" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N83" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O83" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P83" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q83" t="n">
         <v>2</v>
       </c>
       <c r="R83" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S83" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T83" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U83" t="n">
         <v>1.4</v>
@@ -12458,28 +12462,28 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="H84" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I84" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J84" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K84" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L84" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M84" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O84" t="n">
         <v>1.29</v>
@@ -12488,16 +12492,16 @@
         <v>3.5</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R84" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S84" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T84" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U84" t="n">
         <v>1.4</v>
@@ -12521,7 +12525,7 @@
         <v>8.5</v>
       </c>
       <c r="AB84" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC84" t="n">
         <v>13</v>
@@ -12533,10 +12537,10 @@
         <v>9.5</v>
       </c>
       <c r="AF84" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG84" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH84" t="n">
         <v>67</v>
@@ -12545,7 +12549,7 @@
         <v>101</v>
       </c>
       <c r="AJ84" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK84" t="n">
         <v>41</v>
@@ -12629,10 +12633,10 @@
         <v>3.5</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R85" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S85" t="n">
         <v>3.4</v>
@@ -12758,10 +12762,10 @@
         <v>2.38</v>
       </c>
       <c r="M86" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N86" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O86" t="n">
         <v>1.33</v>
@@ -14281,7 +14285,7 @@
         <v>3</v>
       </c>
       <c r="I97" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J97" t="n">
         <v>3.1</v>
@@ -14296,7 +14300,7 @@
         <v>1.08</v>
       </c>
       <c r="N97" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O97" t="n">
         <v>1.4</v>
@@ -14335,7 +14339,7 @@
         <v>10</v>
       </c>
       <c r="AA97" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB97" t="n">
         <v>21</v>
@@ -14362,7 +14366,7 @@
         <v>351</v>
       </c>
       <c r="AJ97" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK97" t="n">
         <v>15</v>
@@ -14728,10 +14732,10 @@
         <v>3.75</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R100" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S100" t="n">
         <v>3.25</v>
@@ -14839,22 +14843,22 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H101" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I101" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J101" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K101" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L101" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M101" t="n">
         <v>1.04</v>
@@ -14869,10 +14873,10 @@
         <v>4</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R101" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S101" t="n">
         <v>2.75</v>
@@ -14881,10 +14885,10 @@
         <v>1.4</v>
       </c>
       <c r="U101" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V101" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W101" t="n">
         <v>1.83</v>
@@ -14905,13 +14909,13 @@
         <v>11</v>
       </c>
       <c r="AC101" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE101" t="n">
         <v>13</v>
-      </c>
-      <c r="AD101" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE101" t="n">
-        <v>12</v>
       </c>
       <c r="AF101" t="n">
         <v>8</v>
@@ -14926,16 +14930,16 @@
         <v>251</v>
       </c>
       <c r="AJ101" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK101" t="n">
         <v>29</v>
       </c>
       <c r="AL101" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM101" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN101" t="n">
         <v>41</v>
@@ -15117,22 +15121,22 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="H103" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I103" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J103" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K103" t="n">
         <v>2.4</v>
       </c>
       <c r="L103" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M103" t="n">
         <v>1.03</v>
@@ -15171,22 +15175,22 @@
         <v>2.38</v>
       </c>
       <c r="Y103" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z103" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA103" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB103" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC103" t="n">
         <v>13</v>
       </c>
       <c r="AD103" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE103" t="n">
         <v>17</v>
@@ -15195,37 +15199,37 @@
         <v>8</v>
       </c>
       <c r="AG103" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH103" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI103" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ103" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK103" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL103" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM103" t="n">
         <v>41</v>
       </c>
       <c r="AN103" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO103" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AR103" t="inlineStr"/>
       <c r="AS103" t="inlineStr"/>
@@ -15262,22 +15266,22 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H104" t="n">
         <v>3.2</v>
       </c>
       <c r="I104" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J104" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K104" t="n">
         <v>2</v>
       </c>
       <c r="L104" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M104" t="n">
         <v>1.07</v>
@@ -15286,22 +15290,22 @@
         <v>9</v>
       </c>
       <c r="O104" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P104" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R104" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S104" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T104" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U104" t="n">
         <v>1.5</v>
@@ -15310,16 +15314,16 @@
         <v>2.5</v>
       </c>
       <c r="W104" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X104" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y104" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z104" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA104" t="n">
         <v>10</v>
@@ -15361,10 +15365,10 @@
         <v>29</v>
       </c>
       <c r="AN104" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO104" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP104" t="inlineStr"/>
       <c r="AQ104" t="inlineStr"/>
@@ -17812,42 +17816,42 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="H122" t="n">
-        <v>3.9</v>
+        <v>4.15</v>
       </c>
       <c r="I122" t="n">
-        <v>4.85</v>
+        <v>5.8</v>
       </c>
       <c r="J122" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="K122" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L122" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P122" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q122" t="n">
         <v>1.7</v>
       </c>
       <c r="R122" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S122" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="T122" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="U122" t="n">
         <v>1.36</v>
@@ -17856,61 +17860,61 @@
         <v>2.52</v>
       </c>
       <c r="W122" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="X122" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="Y122" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Z122" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AA122" t="n">
         <v>7</v>
       </c>
       <c r="AB122" t="n">
-        <v>9.25</v>
+        <v>8</v>
       </c>
       <c r="AC122" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AD122" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE122" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF122" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="AG122" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH122" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AI122" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AJ122" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AK122" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AL122" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AM122" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AN122" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AO122" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AP122" t="inlineStr"/>
       <c r="AQ122" t="inlineStr"/>
@@ -18086,19 +18090,19 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H124" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I124" t="n">
         <v>1.57</v>
       </c>
       <c r="J124" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K124" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L124" t="n">
         <v>2.07</v>
@@ -18118,7 +18122,7 @@
         <v>2.12</v>
       </c>
       <c r="S124" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="T124" t="n">
         <v>1.46</v>
@@ -18130,16 +18134,16 @@
         <v>2.45</v>
       </c>
       <c r="W124" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X124" t="n">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="Y124" t="n">
         <v>13</v>
       </c>
       <c r="Z124" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA124" t="n">
         <v>12.5</v>
@@ -18157,7 +18161,7 @@
         <v>14</v>
       </c>
       <c r="AF124" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AG124" t="n">
         <v>12</v>
@@ -18169,7 +18173,7 @@
         <v>250</v>
       </c>
       <c r="AJ124" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AK124" t="n">
         <v>7.3</v>
@@ -18626,61 +18630,61 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H128" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I128" t="n">
         <v>2.38</v>
       </c>
       <c r="J128" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K128" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L128" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M128" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N128" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="O128" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P128" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q128" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R128" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S128" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T128" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U128" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V128" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W128" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X128" t="n">
         <v>1.8</v>
       </c>
-      <c r="X128" t="n">
-        <v>1.95</v>
-      </c>
       <c r="Y128" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z128" t="n">
         <v>13</v>
@@ -18692,28 +18696,28 @@
         <v>29</v>
       </c>
       <c r="AC128" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD128" t="n">
         <v>34</v>
       </c>
       <c r="AE128" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF128" t="n">
         <v>6.5</v>
       </c>
       <c r="AG128" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH128" t="n">
         <v>51</v>
       </c>
       <c r="AI128" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ128" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK128" t="n">
         <v>11</v>
@@ -18728,7 +18732,7 @@
         <v>21</v>
       </c>
       <c r="AO128" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP128" t="inlineStr"/>
       <c r="AQ128" t="inlineStr"/>
@@ -18773,7 +18777,7 @@
         <v>5</v>
       </c>
       <c r="I129" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J129" t="n">
         <v>1.83</v>
@@ -19895,16 +19899,16 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H137" t="n">
         <v>3.8</v>
       </c>
       <c r="I137" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J137" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K137" t="n">
         <v>2.1</v>
@@ -19913,10 +19917,10 @@
         <v>6.5</v>
       </c>
       <c r="M137" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N137" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O137" t="n">
         <v>1.36</v>
@@ -19943,10 +19947,10 @@
         <v>2.5</v>
       </c>
       <c r="W137" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X137" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y137" t="n">
         <v>5.5</v>
@@ -20604,22 +20608,22 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H142" t="n">
         <v>3.4</v>
       </c>
       <c r="I142" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J142" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K142" t="n">
         <v>2.25</v>
       </c>
       <c r="L142" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M142" t="n">
         <v>1.04</v>
@@ -20667,10 +20671,10 @@
         <v>10</v>
       </c>
       <c r="AB142" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC142" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD142" t="n">
         <v>26</v>
@@ -20697,16 +20701,16 @@
         <v>13</v>
       </c>
       <c r="AL142" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM142" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN142" t="n">
         <v>19</v>
       </c>
       <c r="AO142" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP142" t="inlineStr"/>
       <c r="AQ142" t="inlineStr"/>
@@ -21460,7 +21464,7 @@
         <v>6</v>
       </c>
       <c r="I148" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="J148" t="n">
         <v>8</v>
@@ -21475,7 +21479,7 @@
         <v>1.02</v>
       </c>
       <c r="N148" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O148" t="n">
         <v>1.14</v>
@@ -21484,10 +21488,10 @@
         <v>5.5</v>
       </c>
       <c r="Q148" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R148" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S148" t="n">
         <v>2.2</v>
@@ -21523,7 +21527,7 @@
         <v>51</v>
       </c>
       <c r="AD148" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE148" t="n">
         <v>19</v>
@@ -21532,13 +21536,13 @@
         <v>12</v>
       </c>
       <c r="AG148" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH148" t="n">
         <v>51</v>
       </c>
       <c r="AI148" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ148" t="n">
         <v>9</v>
@@ -21559,10 +21563,10 @@
         <v>23</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AQ148" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AR148" t="inlineStr"/>
       <c r="AS148" t="inlineStr"/>
@@ -21602,10 +21606,10 @@
         <v>1.75</v>
       </c>
       <c r="H149" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I149" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J149" t="n">
         <v>2.5</v>
@@ -21687,16 +21691,16 @@
         <v>11</v>
       </c>
       <c r="AK149" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL149" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM149" t="n">
         <v>51</v>
       </c>
       <c r="AN149" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO149" t="n">
         <v>51</v>
@@ -21742,22 +21746,22 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H150" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I150" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J150" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K150" t="n">
         <v>2.05</v>
       </c>
       <c r="L150" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M150" t="n">
         <v>1.08</v>
@@ -21799,7 +21803,7 @@
         <v>5</v>
       </c>
       <c r="Z150" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA150" t="n">
         <v>9</v>
@@ -21836,7 +21840,7 @@
         <v>21</v>
       </c>
       <c r="AM150" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN150" t="n">
         <v>51</v>
@@ -22316,7 +22320,7 @@
         <v>2.05</v>
       </c>
       <c r="K154" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L154" t="n">
         <v>6</v>
@@ -22328,10 +22332,10 @@
         <v>13</v>
       </c>
       <c r="O154" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P154" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q154" t="n">
         <v>1.75</v>
@@ -22340,10 +22344,10 @@
         <v>2.05</v>
       </c>
       <c r="S154" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T154" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U154" t="n">
         <v>1.33</v>
@@ -23150,40 +23154,40 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.05</v>
+        <v>2.62</v>
       </c>
       <c r="H160" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="I160" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="J160" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="K160" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L160" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="M160" t="n">
         <v>1.07</v>
       </c>
       <c r="N160" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="O160" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P160" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q160" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R160" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S160" t="n">
         <v>3.35</v>
@@ -23192,67 +23196,67 @@
         <v>1.28</v>
       </c>
       <c r="U160" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V160" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="W160" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X160" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="Y160" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="Z160" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA160" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AB160" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AC160" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AD160" t="n">
         <v>35</v>
       </c>
       <c r="AE160" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AF160" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AG160" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH160" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI160" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AJ160" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AK160" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AL160" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM160" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AN160" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO160" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP160" t="inlineStr"/>
       <c r="AQ160" t="inlineStr"/>
@@ -23291,82 +23295,82 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H161" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I161" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="J161" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K161" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="L161" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="M161" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N161" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="O161" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P161" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="Q161" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R161" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="S161" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T161" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="U161" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="V161" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="W161" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X161" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="Y161" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="Z161" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AA161" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="AB161" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AC161" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AD161" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AE161" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AF161" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AG161" t="n">
         <v>13.5</v>
@@ -23378,22 +23382,22 @@
         <v>450</v>
       </c>
       <c r="AJ161" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AK161" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AL161" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM161" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AN161" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO161" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP161" t="inlineStr"/>
       <c r="AQ161" t="inlineStr"/>
@@ -23996,28 +24000,28 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H166" t="n">
         <v>3.6</v>
       </c>
       <c r="I166" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J166" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="K166" t="n">
         <v>2.15</v>
       </c>
       <c r="L166" t="n">
-        <v>4.55</v>
+        <v>4.8</v>
       </c>
       <c r="M166" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N166" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="O166" t="n">
         <v>1.27</v>
@@ -24026,34 +24030,34 @@
         <v>3.4</v>
       </c>
       <c r="Q166" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R166" t="n">
         <v>1.9</v>
       </c>
       <c r="S166" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T166" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="U166" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V166" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="W166" t="n">
         <v>1.75</v>
       </c>
       <c r="X166" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Y166" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Z166" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA166" t="n">
         <v>8</v>
@@ -24062,16 +24066,16 @@
         <v>14</v>
       </c>
       <c r="AC166" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD166" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE166" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AF166" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AG166" t="n">
         <v>14.5</v>
@@ -24083,22 +24087,22 @@
         <v>500</v>
       </c>
       <c r="AJ166" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK166" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL166" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AM166" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN166" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AO166" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP166" t="inlineStr"/>
       <c r="AQ166" t="inlineStr"/>
@@ -24137,22 +24141,22 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H167" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="I167" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="J167" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="K167" t="n">
         <v>2.45</v>
       </c>
       <c r="L167" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="M167" t="n">
         <v>1.03</v>
@@ -24164,7 +24168,7 @@
         <v>1.19</v>
       </c>
       <c r="P167" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="Q167" t="n">
         <v>1.57</v>
@@ -24173,7 +24177,7 @@
         <v>2.25</v>
       </c>
       <c r="S167" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="T167" t="n">
         <v>1.52</v>
@@ -24200,7 +24204,7 @@
         <v>8.25</v>
       </c>
       <c r="AB167" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AC167" t="n">
         <v>10.75</v>
@@ -24224,19 +24228,19 @@
         <v>500</v>
       </c>
       <c r="AJ167" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK167" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AL167" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM167" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AN167" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AO167" t="n">
         <v>60</v>
@@ -25562,10 +25566,10 @@
         <v>2.25</v>
       </c>
       <c r="H177" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I177" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J177" t="n">
         <v>3</v>
@@ -25583,16 +25587,16 @@
         <v>8</v>
       </c>
       <c r="O177" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P177" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q177" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R177" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S177" t="n">
         <v>4.33</v>
@@ -25601,10 +25605,10 @@
         <v>1.2</v>
       </c>
       <c r="U177" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V177" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W177" t="n">
         <v>2</v>
@@ -25616,7 +25620,7 @@
         <v>6.5</v>
       </c>
       <c r="Z177" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA177" t="n">
         <v>9.5</v>
@@ -25640,7 +25644,7 @@
         <v>17</v>
       </c>
       <c r="AH177" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI177" t="n">
         <v>1000</v>
@@ -25652,10 +25656,10 @@
         <v>15</v>
       </c>
       <c r="AL177" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM177" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN177" t="n">
         <v>29</v>
@@ -27544,16 +27548,16 @@
         <v>1.4</v>
       </c>
       <c r="H191" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I191" t="n">
         <v>7</v>
       </c>
       <c r="J191" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K191" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L191" t="n">
         <v>7</v>
@@ -27583,22 +27587,22 @@
         <v>1.4</v>
       </c>
       <c r="U191" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V191" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W191" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X191" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y191" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z191" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA191" t="n">
         <v>8.5</v>
@@ -27610,10 +27614,10 @@
         <v>12</v>
       </c>
       <c r="AD191" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE191" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF191" t="n">
         <v>9</v>
@@ -27622,7 +27626,7 @@
         <v>21</v>
       </c>
       <c r="AH191" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI191" t="n">
         <v>351</v>
@@ -27631,7 +27635,7 @@
         <v>17</v>
       </c>
       <c r="AK191" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL191" t="n">
         <v>21</v>
@@ -28705,10 +28709,10 @@
         <v>2.75</v>
       </c>
       <c r="Q199" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R199" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S199" t="n">
         <v>4.33</v>
@@ -28838,13 +28842,13 @@
         <v>2.3</v>
       </c>
       <c r="M200" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N200" t="n">
         <v>10</v>
       </c>
       <c r="O200" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P200" t="n">
         <v>3.5</v>
@@ -28859,7 +28863,7 @@
         <v>3.4</v>
       </c>
       <c r="T200" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="U200" t="n">
         <v>1.4</v>
@@ -28965,79 +28969,79 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H201" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I201" t="n">
         <v>3.8</v>
       </c>
-      <c r="I201" t="n">
-        <v>4</v>
-      </c>
       <c r="J201" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K201" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L201" t="n">
         <v>4.33</v>
       </c>
       <c r="M201" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N201" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O201" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P201" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q201" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R201" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S201" t="n">
+        <v>3</v>
+      </c>
+      <c r="T201" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U201" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V201" t="n">
+        <v>3</v>
+      </c>
+      <c r="W201" t="n">
         <v>1.7</v>
       </c>
-      <c r="R201" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S201" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T201" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U201" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V201" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W201" t="n">
-        <v>1.67</v>
-      </c>
       <c r="X201" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y201" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z201" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA201" t="n">
         <v>8.5</v>
       </c>
       <c r="AB201" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC201" t="n">
         <v>15</v>
       </c>
-      <c r="AC201" t="n">
-        <v>13</v>
-      </c>
       <c r="AD201" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE201" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF201" t="n">
         <v>7</v>
@@ -29049,10 +29053,10 @@
         <v>41</v>
       </c>
       <c r="AI201" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ201" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK201" t="n">
         <v>21</v>
@@ -29116,7 +29120,7 @@
         <v>3.7</v>
       </c>
       <c r="I202" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J202" t="n">
         <v>2.88</v>
@@ -29128,28 +29132,28 @@
         <v>3.2</v>
       </c>
       <c r="M202" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N202" t="n">
         <v>17</v>
       </c>
       <c r="O202" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P202" t="n">
         <v>5</v>
       </c>
       <c r="Q202" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R202" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S202" t="n">
         <v>2.25</v>
       </c>
       <c r="T202" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="U202" t="n">
         <v>1.29</v>
@@ -29215,10 +29219,10 @@
         <v>21</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AR202" t="inlineStr"/>
       <c r="AS202" t="inlineStr"/>
@@ -29273,28 +29277,28 @@
         <v>3.1</v>
       </c>
       <c r="M203" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N203" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O203" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="P203" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q203" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R203" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S203" t="n">
         <v>2</v>
       </c>
       <c r="T203" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="U203" t="n">
         <v>1.25</v>
@@ -29684,7 +29688,7 @@
         <v>3.35</v>
       </c>
       <c r="I206" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J206" t="n">
         <v>2.4</v>
@@ -29710,7 +29714,7 @@
         <v>1.72</v>
       </c>
       <c r="S206" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T206" t="n">
         <v>1.28</v>
@@ -29740,13 +29744,13 @@
         <v>16</v>
       </c>
       <c r="AC206" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD206" t="n">
         <v>27</v>
       </c>
       <c r="AE206" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF206" t="n">
         <v>6.5</v>
@@ -29776,7 +29780,7 @@
         <v>37</v>
       </c>
       <c r="AO206" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP206" t="inlineStr"/>
       <c r="AQ206" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-16.xlsx
@@ -978,22 +978,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1035,10 +1035,10 @@
         <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
         <v>51</v>
@@ -1695,22 +1695,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L9" t="n">
         <v>7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L9" t="n">
-        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -1719,10 +1719,10 @@
         <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q9" t="n">
         <v>1.5</v>
@@ -1731,10 +1731,10 @@
         <v>2.63</v>
       </c>
       <c r="S9" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="n">
         <v>1.25</v>
@@ -1743,13 +1743,13 @@
         <v>3.75</v>
       </c>
       <c r="W9" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
         <v>8</v>
@@ -1758,10 +1758,10 @@
         <v>8.5</v>
       </c>
       <c r="AB9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC9" t="n">
         <v>10</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>11</v>
       </c>
       <c r="AD9" t="n">
         <v>21</v>
@@ -1770,31 +1770,31 @@
         <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
         <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AM9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO9" t="n">
         <v>41</v>
@@ -2847,22 +2847,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H17" t="n">
         <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -2871,40 +2871,40 @@
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="S17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U17" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V17" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W17" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA17" t="n">
         <v>10</v>
@@ -2919,7 +2919,7 @@
         <v>29</v>
       </c>
       <c r="AE17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF17" t="n">
         <v>6</v>
@@ -2928,10 +2928,10 @@
         <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ17" t="n">
         <v>9</v>
@@ -2940,13 +2940,13 @@
         <v>13</v>
       </c>
       <c r="AL17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
         <v>29</v>
@@ -4138,10 +4138,10 @@
         <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
         <v>2.3</v>
@@ -4150,28 +4150,28 @@
         <v>2.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P26" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R26" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S26" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="T26" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="U26" t="n">
         <v>1.3</v>
@@ -4189,7 +4189,7 @@
         <v>13</v>
       </c>
       <c r="Z26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA26" t="n">
         <v>11</v>
@@ -4216,7 +4216,7 @@
         <v>34</v>
       </c>
       <c r="AI26" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ26" t="n">
         <v>11</v>
@@ -4231,16 +4231,16 @@
         <v>21</v>
       </c>
       <c r="AN26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO26" t="n">
         <v>21</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
@@ -4277,22 +4277,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="H27" t="n">
         <v>2.9</v>
       </c>
       <c r="I27" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K27" t="n">
         <v>1.91</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M27" t="n">
         <v>1.11</v>
@@ -4307,10 +4307,10 @@
         <v>2.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R27" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -4334,16 +4334,16 @@
         <v>6.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD27" t="n">
         <v>41</v>
@@ -4364,19 +4364,19 @@
         <v>501</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO27" t="n">
         <v>41</v>
@@ -4388,10 +4388,10 @@
         <v>1.24</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="28">
@@ -4426,70 +4426,70 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H28" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I28" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J28" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K28" t="n">
         <v>2.05</v>
       </c>
       <c r="L28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R28" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T28" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U28" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V28" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W28" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X28" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y28" t="n">
         <v>6</v>
       </c>
       <c r="Z28" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA28" t="n">
         <v>9</v>
       </c>
       <c r="AB28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC28" t="n">
         <v>17</v>
@@ -4498,10 +4498,10 @@
         <v>34</v>
       </c>
       <c r="AE28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG28" t="n">
         <v>19</v>
@@ -4510,13 +4510,13 @@
         <v>67</v>
       </c>
       <c r="AI28" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AJ28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL28" t="n">
         <v>15</v>
@@ -4528,7 +4528,7 @@
         <v>41</v>
       </c>
       <c r="AO28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP28" t="n">
         <v>3.25</v>
@@ -4575,13 +4575,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H29" t="n">
         <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J29" t="n">
         <v>2.5</v>
@@ -5021,10 +5021,10 @@
         <v>3.6</v>
       </c>
       <c r="H32" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I32" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J32" t="n">
         <v>4.75</v>
@@ -5033,7 +5033,7 @@
         <v>1.8</v>
       </c>
       <c r="L32" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M32" t="n">
         <v>1.14</v>
@@ -5048,22 +5048,22 @@
         <v>2</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T32" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="U32" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V32" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="W32" t="n">
         <v>2.63</v>
@@ -5072,10 +5072,10 @@
         <v>1.44</v>
       </c>
       <c r="Y32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA32" t="n">
         <v>15</v>
@@ -5096,10 +5096,10 @@
         <v>6.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH32" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI32" t="n">
         <v>101</v>
@@ -5300,13 +5300,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H34" t="n">
         <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
         <v>2.88</v>
@@ -5315,13 +5315,13 @@
         <v>1.83</v>
       </c>
       <c r="L34" t="n">
+        <v>5</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N34" t="n">
         <v>5.5</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N34" t="n">
-        <v>6</v>
       </c>
       <c r="O34" t="n">
         <v>1.62</v>
@@ -5348,22 +5348,22 @@
         <v>2.1</v>
       </c>
       <c r="W34" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="X34" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Z34" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA34" t="n">
         <v>10</v>
       </c>
       <c r="AB34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC34" t="n">
         <v>23</v>
@@ -5387,13 +5387,13 @@
         <v>101</v>
       </c>
       <c r="AJ34" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK34" t="n">
         <v>19</v>
       </c>
       <c r="AL34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM34" t="n">
         <v>51</v>
@@ -5441,22 +5441,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
         <v>2.7</v>
       </c>
       <c r="I35" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J35" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K35" t="n">
         <v>1.73</v>
       </c>
       <c r="L35" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
         <v>1.18</v>
@@ -5501,13 +5501,13 @@
         <v>9</v>
       </c>
       <c r="AA35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB35" t="n">
         <v>23</v>
       </c>
       <c r="AC35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD35" t="n">
         <v>51</v>
@@ -5528,10 +5528,10 @@
         <v>101</v>
       </c>
       <c r="AJ35" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL35" t="n">
         <v>17</v>
@@ -5582,7 +5582,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="H36" t="n">
         <v>3.2</v>
@@ -5612,10 +5612,10 @@
         <v>2.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R36" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -5689,10 +5689,10 @@
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
       <c r="AR36" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="37">
@@ -5727,10 +5727,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H37" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="I37" t="n">
         <v>4.33</v>
@@ -5868,22 +5868,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="H38" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I38" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J38" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K38" t="n">
         <v>1.83</v>
       </c>
       <c r="L38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M38" t="n">
         <v>1.13</v>
@@ -5928,10 +5928,10 @@
         <v>6</v>
       </c>
       <c r="AA38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC38" t="n">
         <v>21</v>
@@ -5949,7 +5949,7 @@
         <v>29</v>
       </c>
       <c r="AH38" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI38" t="n">
         <v>101</v>
@@ -5961,10 +5961,10 @@
         <v>29</v>
       </c>
       <c r="AL38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM38" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN38" t="n">
         <v>67</v>
@@ -9292,28 +9292,28 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I62" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="J62" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K62" t="n">
         <v>2.2</v>
       </c>
       <c r="L62" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M62" t="n">
         <v>1.04</v>
       </c>
       <c r="N62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O62" t="n">
         <v>1.25</v>
@@ -9322,7 +9322,7 @@
         <v>3.75</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R62" t="n">
         <v>2</v>
@@ -9346,28 +9346,28 @@
         <v>2.1</v>
       </c>
       <c r="Y62" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA62" t="n">
         <v>9</v>
       </c>
-      <c r="Z62" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AB62" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD62" t="n">
         <v>23</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>26</v>
       </c>
       <c r="AE62" t="n">
         <v>12</v>
       </c>
       <c r="AF62" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG62" t="n">
         <v>13</v>
@@ -9379,19 +9379,19 @@
         <v>151</v>
       </c>
       <c r="AJ62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK62" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM62" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN62" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AO62" t="n">
         <v>29</v>
@@ -9441,28 +9441,28 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="H63" t="n">
         <v>3.7</v>
       </c>
       <c r="I63" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L63" t="n">
         <v>4.33</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L63" t="n">
-        <v>4.75</v>
       </c>
       <c r="M63" t="n">
         <v>1.04</v>
       </c>
       <c r="N63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O63" t="n">
         <v>1.25</v>
@@ -9474,13 +9474,13 @@
         <v>1.85</v>
       </c>
       <c r="R63" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S63" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T63" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U63" t="n">
         <v>1.36</v>
@@ -9489,31 +9489,31 @@
         <v>3</v>
       </c>
       <c r="W63" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X63" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y63" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z63" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA63" t="n">
         <v>8.5</v>
       </c>
       <c r="AB63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC63" t="n">
         <v>15</v>
       </c>
       <c r="AD63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF63" t="n">
         <v>7</v>
@@ -9528,22 +9528,22 @@
         <v>201</v>
       </c>
       <c r="AJ63" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK63" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL63" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AM63" t="n">
         <v>41</v>
       </c>
       <c r="AN63" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO63" t="n">
         <v>34</v>
-      </c>
-      <c r="AO63" t="n">
-        <v>41</v>
       </c>
       <c r="AP63" t="n">
         <v>2.42</v>
@@ -9590,13 +9590,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I64" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3.8</v>
       </c>
       <c r="J64" t="n">
         <v>2.6</v>
@@ -9608,10 +9608,10 @@
         <v>3.75</v>
       </c>
       <c r="M64" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O64" t="n">
         <v>1.2</v>
@@ -9620,10 +9620,10 @@
         <v>4.33</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R64" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S64" t="n">
         <v>2.63</v>
@@ -9632,10 +9632,10 @@
         <v>1.44</v>
       </c>
       <c r="U64" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V64" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W64" t="n">
         <v>1.57</v>
@@ -9662,7 +9662,7 @@
         <v>21</v>
       </c>
       <c r="AE64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF64" t="n">
         <v>7</v>
@@ -9677,13 +9677,13 @@
         <v>126</v>
       </c>
       <c r="AJ64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK64" t="n">
         <v>21</v>
       </c>
       <c r="AL64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM64" t="n">
         <v>41</v>
@@ -9695,16 +9695,16 @@
         <v>29</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AR64" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AS64" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="65">
@@ -9739,13 +9739,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H65" t="n">
         <v>3.3</v>
       </c>
       <c r="I65" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J65" t="n">
         <v>2.5</v>
@@ -9760,7 +9760,7 @@
         <v>1.08</v>
       </c>
       <c r="N65" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O65" t="n">
         <v>1.4</v>
@@ -9787,16 +9787,16 @@
         <v>2.5</v>
       </c>
       <c r="W65" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X65" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y65" t="n">
         <v>5.5</v>
       </c>
       <c r="Z65" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA65" t="n">
         <v>9</v>
@@ -9811,13 +9811,13 @@
         <v>34</v>
       </c>
       <c r="AE65" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF65" t="n">
         <v>6.5</v>
       </c>
       <c r="AG65" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH65" t="n">
         <v>67</v>
@@ -9844,10 +9844,10 @@
         <v>51</v>
       </c>
       <c r="AP65" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AR65" t="n">
         <v>1.78</v>
@@ -9906,16 +9906,16 @@
         <v>6.5</v>
       </c>
       <c r="M66" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N66" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O66" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P66" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q66" t="n">
         <v>2.5</v>
@@ -9930,10 +9930,10 @@
         <v>1.17</v>
       </c>
       <c r="U66" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V66" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W66" t="n">
         <v>2.38</v>
@@ -9999,10 +9999,10 @@
         <v>1.24</v>
       </c>
       <c r="AR66" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="67">
@@ -10037,28 +10037,28 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H67" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I67" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J67" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K67" t="n">
         <v>2.2</v>
       </c>
       <c r="L67" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M67" t="n">
         <v>1.07</v>
       </c>
       <c r="N67" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O67" t="n">
         <v>1.33</v>
@@ -10067,10 +10067,10 @@
         <v>3.25</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R67" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S67" t="n">
         <v>3.75</v>
@@ -10100,16 +10100,16 @@
         <v>9</v>
       </c>
       <c r="AB67" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC67" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD67" t="n">
         <v>34</v>
       </c>
       <c r="AE67" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF67" t="n">
         <v>7.5</v>
@@ -10127,7 +10127,7 @@
         <v>15</v>
       </c>
       <c r="AK67" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL67" t="n">
         <v>23</v>
@@ -10142,16 +10142,16 @@
         <v>67</v>
       </c>
       <c r="AP67" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="AR67" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="68">
@@ -10186,10 +10186,10 @@
         </is>
       </c>
       <c r="G68" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H68" t="n">
         <v>3.3</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3.25</v>
       </c>
       <c r="I68" t="n">
         <v>2.2</v>
@@ -10198,7 +10198,7 @@
         <v>4</v>
       </c>
       <c r="K68" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L68" t="n">
         <v>3</v>
@@ -10207,7 +10207,7 @@
         <v>1.08</v>
       </c>
       <c r="N68" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O68" t="n">
         <v>1.44</v>
@@ -10222,10 +10222,10 @@
         <v>1.57</v>
       </c>
       <c r="S68" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T68" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="U68" t="n">
         <v>1.53</v>
@@ -10297,10 +10297,10 @@
         <v>1.27</v>
       </c>
       <c r="AR68" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="69">
@@ -12603,28 +12603,28 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="H85" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I85" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="J85" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K85" t="n">
         <v>2.1</v>
       </c>
       <c r="L85" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M85" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N85" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O85" t="n">
         <v>1.29</v>
@@ -12633,10 +12633,10 @@
         <v>3.5</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R85" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S85" t="n">
         <v>3.4</v>
@@ -12651,58 +12651,58 @@
         <v>2.75</v>
       </c>
       <c r="W85" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X85" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y85" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z85" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA85" t="n">
         <v>12</v>
       </c>
-      <c r="AA85" t="n">
+      <c r="AB85" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE85" t="n">
         <v>10</v>
       </c>
-      <c r="AB85" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>11</v>
-      </c>
       <c r="AF85" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG85" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH85" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI85" t="n">
         <v>201</v>
       </c>
       <c r="AJ85" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK85" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL85" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM85" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN85" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO85" t="n">
         <v>29</v>
@@ -18630,16 +18630,16 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H128" t="n">
         <v>3.4</v>
       </c>
       <c r="I128" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J128" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K128" t="n">
         <v>2.05</v>
@@ -18648,10 +18648,10 @@
         <v>3.2</v>
       </c>
       <c r="M128" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N128" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O128" t="n">
         <v>1.36</v>
@@ -18660,31 +18660,31 @@
         <v>3</v>
       </c>
       <c r="Q128" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R128" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S128" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T128" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U128" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V128" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W128" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X128" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y128" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z128" t="n">
         <v>13</v>
@@ -18696,34 +18696,34 @@
         <v>29</v>
       </c>
       <c r="AC128" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD128" t="n">
         <v>34</v>
       </c>
       <c r="AE128" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF128" t="n">
         <v>6.5</v>
       </c>
       <c r="AG128" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH128" t="n">
         <v>51</v>
       </c>
       <c r="AI128" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ128" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK128" t="n">
         <v>11</v>
       </c>
       <c r="AL128" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM128" t="n">
         <v>23</v>
@@ -18732,7 +18732,7 @@
         <v>21</v>
       </c>
       <c r="AO128" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP128" t="inlineStr"/>
       <c r="AQ128" t="inlineStr"/>
@@ -18771,16 +18771,16 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H129" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I129" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J129" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K129" t="n">
         <v>2.75</v>
@@ -18807,16 +18807,16 @@
         <v>3.1</v>
       </c>
       <c r="S129" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T129" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U129" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="V129" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="W129" t="n">
         <v>1.57</v>
@@ -18846,7 +18846,7 @@
         <v>23</v>
       </c>
       <c r="AF129" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG129" t="n">
         <v>15</v>
@@ -18867,7 +18867,7 @@
         <v>21</v>
       </c>
       <c r="AM129" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN129" t="n">
         <v>41</v>
@@ -19186,103 +19186,103 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H132" t="n">
+        <v>5</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J132" t="n">
+        <v>13</v>
+      </c>
+      <c r="K132" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N132" t="n">
+        <v>11</v>
+      </c>
+      <c r="O132" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P132" t="n">
         <v>3.5</v>
       </c>
-      <c r="I132" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J132" t="n">
-        <v>8</v>
-      </c>
-      <c r="K132" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L132" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M132" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N132" t="n">
+      <c r="Q132" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R132" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S132" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U132" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V132" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W132" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="X132" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>201</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>126</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE132" t="n">
         <v>9</v>
       </c>
-      <c r="O132" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P132" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q132" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R132" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S132" t="n">
-        <v>4</v>
-      </c>
-      <c r="T132" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U132" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V132" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W132" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X132" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y132" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z132" t="n">
+      <c r="AF132" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG132" t="n">
         <v>34</v>
       </c>
-      <c r="AA132" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB132" t="n">
-        <v>101</v>
-      </c>
-      <c r="AC132" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD132" t="n">
-        <v>67</v>
-      </c>
-      <c r="AE132" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF132" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG132" t="n">
-        <v>26</v>
-      </c>
       <c r="AH132" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AI132" t="n">
         <v>101</v>
       </c>
       <c r="AJ132" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AK132" t="n">
         <v>5</v>
       </c>
-      <c r="AK132" t="n">
-        <v>6</v>
-      </c>
       <c r="AL132" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AM132" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="AN132" t="n">
         <v>15</v>
@@ -19327,28 +19327,28 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H133" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I133" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J133" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K133" t="n">
         <v>2</v>
       </c>
       <c r="L133" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M133" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N133" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O133" t="n">
         <v>1.44</v>
@@ -19363,10 +19363,10 @@
         <v>1.53</v>
       </c>
       <c r="S133" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T133" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="U133" t="n">
         <v>1.53</v>
@@ -19387,7 +19387,7 @@
         <v>7.5</v>
       </c>
       <c r="AA133" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB133" t="n">
         <v>15</v>
@@ -19396,7 +19396,7 @@
         <v>19</v>
       </c>
       <c r="AD133" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE133" t="n">
         <v>7</v>
@@ -19414,7 +19414,7 @@
         <v>101</v>
       </c>
       <c r="AJ133" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK133" t="n">
         <v>21</v>
@@ -19434,10 +19434,10 @@
       <c r="AP133" t="inlineStr"/>
       <c r="AQ133" t="inlineStr"/>
       <c r="AR133" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS133" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="134">
@@ -21603,28 +21603,28 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="H149" t="n">
         <v>3.3</v>
       </c>
       <c r="I149" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J149" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K149" t="n">
         <v>2</v>
       </c>
       <c r="L149" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M149" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N149" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O149" t="n">
         <v>1.44</v>
@@ -21633,10 +21633,10 @@
         <v>2.63</v>
       </c>
       <c r="Q149" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R149" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S149" t="n">
         <v>4.5</v>
@@ -21651,31 +21651,31 @@
         <v>2.38</v>
       </c>
       <c r="W149" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X149" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y149" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z149" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA149" t="n">
         <v>9</v>
       </c>
       <c r="AB149" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC149" t="n">
         <v>17</v>
       </c>
       <c r="AD149" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE149" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF149" t="n">
         <v>6.5</v>
@@ -21686,18 +21686,20 @@
       <c r="AH149" t="n">
         <v>81</v>
       </c>
-      <c r="AI149" t="inlineStr"/>
+      <c r="AI149" t="n">
+        <v>501</v>
+      </c>
       <c r="AJ149" t="n">
         <v>11</v>
       </c>
       <c r="AK149" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL149" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM149" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN149" t="n">
         <v>51</v>
@@ -21708,10 +21710,10 @@
       <c r="AP149" t="inlineStr"/>
       <c r="AQ149" t="inlineStr"/>
       <c r="AR149" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="150">
@@ -21749,7 +21751,7 @@
         <v>1.57</v>
       </c>
       <c r="H150" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I150" t="n">
         <v>6.25</v>
@@ -21840,7 +21842,7 @@
         <v>21</v>
       </c>
       <c r="AM150" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN150" t="n">
         <v>51</v>
@@ -22308,22 +22310,22 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H154" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I154" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J154" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K154" t="n">
         <v>2.38</v>
       </c>
       <c r="L154" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M154" t="n">
         <v>1.04</v>
@@ -22332,10 +22334,10 @@
         <v>13</v>
       </c>
       <c r="O154" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P154" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q154" t="n">
         <v>1.75</v>
@@ -22344,34 +22346,34 @@
         <v>2.05</v>
       </c>
       <c r="S154" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T154" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U154" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V154" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W154" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X154" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y154" t="n">
         <v>7</v>
       </c>
       <c r="Z154" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA154" t="n">
         <v>8.5</v>
       </c>
       <c r="AB154" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC154" t="n">
         <v>12</v>
@@ -22383,7 +22385,7 @@
         <v>12</v>
       </c>
       <c r="AF154" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG154" t="n">
         <v>19</v>
@@ -22392,13 +22394,13 @@
         <v>51</v>
       </c>
       <c r="AI154" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ154" t="n">
         <v>15</v>
       </c>
       <c r="AK154" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL154" t="n">
         <v>19</v>
@@ -24144,25 +24146,25 @@
         <v>1.42</v>
       </c>
       <c r="H167" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="I167" t="n">
         <v>6.7</v>
       </c>
       <c r="J167" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="K167" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L167" t="n">
         <v>6</v>
       </c>
       <c r="M167" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N167" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O167" t="n">
         <v>1.19</v>
@@ -24171,22 +24173,22 @@
         <v>4.15</v>
       </c>
       <c r="Q167" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R167" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="S167" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="T167" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="U167" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="V167" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="W167" t="n">
         <v>1.78</v>
@@ -24195,10 +24197,10 @@
         <v>1.93</v>
       </c>
       <c r="Y167" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Z167" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AA167" t="n">
         <v>8.25</v>
@@ -24207,28 +24209,28 @@
         <v>9.75</v>
       </c>
       <c r="AC167" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AD167" t="n">
         <v>23</v>
       </c>
       <c r="AE167" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF167" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AG167" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH167" t="n">
         <v>70</v>
       </c>
       <c r="AI167" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AJ167" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK167" t="n">
         <v>45</v>
@@ -24243,7 +24245,7 @@
         <v>65</v>
       </c>
       <c r="AO167" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AP167" t="inlineStr"/>
       <c r="AQ167" t="inlineStr"/>
@@ -28709,10 +28711,10 @@
         <v>2.75</v>
       </c>
       <c r="Q199" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R199" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S199" t="n">
         <v>4.33</v>
@@ -28833,22 +28835,22 @@
         <v>1.7</v>
       </c>
       <c r="J200" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K200" t="n">
         <v>2.2</v>
       </c>
       <c r="L200" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M200" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N200" t="n">
         <v>10</v>
       </c>
       <c r="O200" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P200" t="n">
         <v>3.5</v>
@@ -28863,7 +28865,7 @@
         <v>3.4</v>
       </c>
       <c r="T200" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="U200" t="n">
         <v>1.4</v>
@@ -28878,10 +28880,10 @@
         <v>1.83</v>
       </c>
       <c r="Y200" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z200" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA200" t="n">
         <v>17</v>
@@ -28908,13 +28910,13 @@
         <v>51</v>
       </c>
       <c r="AI200" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ200" t="n">
         <v>7</v>
       </c>
       <c r="AK200" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AL200" t="n">
         <v>8.5</v>
@@ -29114,115 +29116,115 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="H202" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I202" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="J202" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="K202" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L202" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M202" t="n">
         <v>1.02</v>
       </c>
       <c r="N202" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O202" t="n">
         <v>1.13</v>
       </c>
       <c r="P202" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q202" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="R202" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S202" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T202" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="U202" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V202" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W202" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="X202" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="Y202" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z202" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC202" t="n">
         <v>15</v>
       </c>
-      <c r="AA202" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB202" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC202" t="n">
-        <v>17</v>
-      </c>
       <c r="AD202" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE202" t="n">
         <v>21</v>
       </c>
-      <c r="AE202" t="n">
-        <v>17</v>
-      </c>
       <c r="AF202" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG202" t="n">
         <v>11</v>
       </c>
       <c r="AH202" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM202" t="n">
         <v>34</v>
       </c>
-      <c r="AI202" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ202" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK202" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL202" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM202" t="n">
-        <v>29</v>
-      </c>
       <c r="AN202" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO202" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="AR202" t="inlineStr"/>
       <c r="AS202" t="inlineStr"/>
@@ -29259,13 +29261,13 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H203" t="n">
         <v>3.8</v>
       </c>
       <c r="I203" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="J203" t="n">
         <v>2.88</v>
@@ -29274,16 +29276,16 @@
         <v>2.5</v>
       </c>
       <c r="L203" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M203" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N203" t="n">
         <v>21</v>
       </c>
       <c r="O203" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="P203" t="n">
         <v>6.5</v>
@@ -29298,19 +29300,19 @@
         <v>2</v>
       </c>
       <c r="T203" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="U203" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V203" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W203" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X203" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y203" t="n">
         <v>15</v>
@@ -29331,10 +29333,10 @@
         <v>19</v>
       </c>
       <c r="AE203" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF203" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG203" t="n">
         <v>10</v>
@@ -29343,25 +29345,25 @@
         <v>26</v>
       </c>
       <c r="AI203" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ203" t="n">
         <v>15</v>
       </c>
       <c r="AK203" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO203" t="n">
         <v>19</v>
-      </c>
-      <c r="AL203" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM203" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN203" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO203" t="n">
-        <v>21</v>
       </c>
       <c r="AP203" t="n">
         <v>1.83</v>
@@ -29545,81 +29547,81 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="H205" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="I205" t="n">
-        <v>6.1</v>
+        <v>7.7</v>
       </c>
       <c r="J205" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="K205" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="L205" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P205" t="n">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
       <c r="Q205" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="R205" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="S205" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="T205" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="U205" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="V205" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="W205" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="X205" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y205" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Z205" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="AA205" t="n">
         <v>8.5</v>
       </c>
       <c r="AB205" t="n">
-        <v>11.25</v>
+        <v>9.5</v>
       </c>
       <c r="AC205" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD205" t="n">
         <v>37</v>
       </c>
       <c r="AE205" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="AF205" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AG205" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH205" t="n">
         <v>150</v>
@@ -29628,22 +29630,22 @@
         <v>101</v>
       </c>
       <c r="AJ205" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK205" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AL205" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AM205" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="AN205" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AO205" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AP205" t="inlineStr"/>
       <c r="AQ205" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-16.xlsx
@@ -4531,16 +4531,16 @@
         <v>41</v>
       </c>
       <c r="AP28" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="29">
@@ -4581,28 +4581,28 @@
         <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K29" t="n">
         <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P29" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q29" t="n">
         <v>2.35</v>
@@ -4611,28 +4611,28 @@
         <v>1.57</v>
       </c>
       <c r="S29" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U29" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V29" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W29" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X29" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y29" t="n">
         <v>5.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA29" t="n">
         <v>9</v>
@@ -4647,49 +4647,49 @@
         <v>34</v>
       </c>
       <c r="AE29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF29" t="n">
         <v>6.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH29" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="n">
         <v>501</v>
       </c>
       <c r="AJ29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM29" t="n">
         <v>51</v>
       </c>
       <c r="AN29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO29" t="n">
         <v>51</v>
       </c>
       <c r="AP29" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="30">
@@ -4724,52 +4724,52 @@
         </is>
       </c>
       <c r="G30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3</v>
+      </c>
+      <c r="K30" t="n">
         <v>1.83</v>
       </c>
-      <c r="H30" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1.95</v>
-      </c>
       <c r="L30" t="n">
+        <v>5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N30" t="n">
         <v>5.5</v>
       </c>
-      <c r="M30" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N30" t="n">
-        <v>7</v>
-      </c>
       <c r="O30" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P30" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S30" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T30" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U30" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="V30" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W30" t="n">
         <v>2.38</v>
@@ -4781,28 +4781,28 @@
         <v>5</v>
       </c>
       <c r="Z30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB30" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC30" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AD30" t="n">
         <v>41</v>
       </c>
       <c r="AE30" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH30" t="n">
         <v>81</v>
@@ -4811,16 +4811,16 @@
         <v>101</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="n">
         <v>41</v>
@@ -4829,16 +4829,16 @@
         <v>51</v>
       </c>
       <c r="AP30" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="AR30" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="31">
@@ -5745,10 +5745,10 @@
         <v>5.5</v>
       </c>
       <c r="M37" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="N37" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="O37" t="n">
         <v>1.83</v>
@@ -5775,10 +5775,10 @@
         <v>1.95</v>
       </c>
       <c r="W37" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="X37" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Y37" t="n">
         <v>4.5</v>
@@ -9614,22 +9614,22 @@
         <v>15</v>
       </c>
       <c r="O64" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P64" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R64" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S64" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T64" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U64" t="n">
         <v>1.3</v>
@@ -9695,16 +9695,16 @@
         <v>29</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="AR64" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AS64" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="65">
@@ -10037,22 +10037,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H67" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J67" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K67" t="n">
         <v>2.2</v>
       </c>
       <c r="L67" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M67" t="n">
         <v>1.07</v>
@@ -10091,16 +10091,16 @@
         <v>1.62</v>
       </c>
       <c r="Y67" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z67" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA67" t="n">
         <v>9</v>
       </c>
       <c r="AB67" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC67" t="n">
         <v>13</v>
@@ -10118,7 +10118,7 @@
         <v>21</v>
       </c>
       <c r="AH67" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI67" t="n">
         <v>101</v>
@@ -10127,10 +10127,10 @@
         <v>15</v>
       </c>
       <c r="AK67" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL67" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM67" t="n">
         <v>81</v>
@@ -10139,7 +10139,7 @@
         <v>51</v>
       </c>
       <c r="AO67" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP67" t="n">
         <v>2.95</v>
@@ -10186,7 +10186,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H68" t="n">
         <v>3.3</v>
@@ -10249,7 +10249,7 @@
         <v>12</v>
       </c>
       <c r="AB68" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC68" t="n">
         <v>29</v>
@@ -12744,40 +12744,40 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="H86" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I86" t="n">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
       <c r="J86" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="K86" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L86" t="n">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="M86" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O86" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P86" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R86" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S86" t="n">
         <v>3.75</v>
@@ -12792,61 +12792,61 @@
         <v>2.63</v>
       </c>
       <c r="W86" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="X86" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="Y86" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z86" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AA86" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB86" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC86" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD86" t="n">
         <v>41</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>51</v>
       </c>
       <c r="AE86" t="n">
         <v>8</v>
       </c>
       <c r="AF86" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG86" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH86" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI86" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK86" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AL86" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM86" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AN86" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AO86" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP86" t="inlineStr"/>
       <c r="AQ86" t="inlineStr"/>
@@ -18777,7 +18777,7 @@
         <v>5.25</v>
       </c>
       <c r="I129" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J129" t="n">
         <v>1.8</v>
@@ -19189,76 +19189,76 @@
         <v>12</v>
       </c>
       <c r="H132" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I132" t="n">
         <v>1.2</v>
       </c>
       <c r="J132" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K132" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L132" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="M132" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N132" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O132" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P132" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R132" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="S132" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="T132" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="U132" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V132" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W132" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="X132" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Y132" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z132" t="n">
         <v>51</v>
       </c>
       <c r="AA132" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB132" t="n">
         <v>201</v>
       </c>
       <c r="AC132" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD132" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE132" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF132" t="n">
         <v>11</v>
@@ -19267,25 +19267,25 @@
         <v>34</v>
       </c>
       <c r="AH132" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AI132" t="n">
         <v>101</v>
       </c>
       <c r="AJ132" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AK132" t="n">
         <v>5</v>
       </c>
       <c r="AL132" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM132" t="n">
         <v>6.5</v>
       </c>
       <c r="AN132" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO132" t="n">
         <v>41</v>
@@ -19472,10 +19472,10 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H134" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I134" t="n">
         <v>7.5</v>
@@ -19490,22 +19490,22 @@
         <v>8.5</v>
       </c>
       <c r="M134" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N134" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O134" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P134" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q134" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R134" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S134" t="n">
         <v>4</v>
@@ -19520,10 +19520,10 @@
         <v>2.63</v>
       </c>
       <c r="W134" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="X134" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Y134" t="n">
         <v>5</v>
@@ -19535,7 +19535,7 @@
         <v>9.5</v>
       </c>
       <c r="AB134" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC134" t="n">
         <v>15</v>
@@ -19544,13 +19544,13 @@
         <v>41</v>
       </c>
       <c r="AE134" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF134" t="n">
         <v>8.5</v>
       </c>
       <c r="AG134" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH134" t="n">
         <v>101</v>
@@ -20040,22 +20040,22 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H138" t="n">
         <v>3.1</v>
       </c>
       <c r="I138" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J138" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K138" t="n">
         <v>2.05</v>
       </c>
       <c r="L138" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M138" t="n">
         <v>1.07</v>
@@ -20097,13 +20097,13 @@
         <v>7</v>
       </c>
       <c r="Z138" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA138" t="n">
         <v>10</v>
       </c>
-      <c r="AA138" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AB138" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC138" t="n">
         <v>21</v>
@@ -20127,7 +20127,7 @@
         <v>301</v>
       </c>
       <c r="AJ138" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK138" t="n">
         <v>15</v>
@@ -20139,7 +20139,7 @@
         <v>34</v>
       </c>
       <c r="AN138" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO138" t="n">
         <v>41</v>
@@ -28829,55 +28829,55 @@
         <v>5.25</v>
       </c>
       <c r="H200" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I200" t="n">
         <v>1.7</v>
       </c>
       <c r="J200" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K200" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L200" t="n">
         <v>2.38</v>
       </c>
       <c r="M200" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N200" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O200" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P200" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R200" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S200" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T200" t="n">
         <v>1.29</v>
       </c>
-      <c r="P200" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q200" t="n">
-        <v>2</v>
-      </c>
-      <c r="R200" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S200" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T200" t="n">
-        <v>1.3</v>
-      </c>
       <c r="U200" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V200" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W200" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X200" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y200" t="n">
         <v>13</v>
@@ -28898,25 +28898,25 @@
         <v>41</v>
       </c>
       <c r="AE200" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF200" t="n">
         <v>6.5</v>
       </c>
       <c r="AG200" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH200" t="n">
         <v>51</v>
       </c>
       <c r="AI200" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ200" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK200" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AL200" t="n">
         <v>8.5</v>
@@ -29261,46 +29261,46 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H203" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I203" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J203" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K203" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L203" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M203" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N203" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O203" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="P203" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q203" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="R203" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="S203" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T203" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="U203" t="n">
         <v>1.22</v>
@@ -29315,25 +29315,25 @@
         <v>3</v>
       </c>
       <c r="Y203" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z203" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA203" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB203" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC203" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD203" t="n">
         <v>19</v>
       </c>
       <c r="AE203" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF203" t="n">
         <v>8.5</v>
@@ -29342,13 +29342,13 @@
         <v>10</v>
       </c>
       <c r="AH203" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI203" t="n">
         <v>67</v>
       </c>
       <c r="AJ203" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK203" t="n">
         <v>17</v>
@@ -29360,10 +29360,10 @@
         <v>26</v>
       </c>
       <c r="AN203" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO203" t="n">
         <v>17</v>
-      </c>
-      <c r="AO203" t="n">
-        <v>19</v>
       </c>
       <c r="AP203" t="n">
         <v>1.83</v>
@@ -29684,39 +29684,39 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="H206" t="n">
         <v>3.35</v>
       </c>
       <c r="I206" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J206" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="K206" t="n">
         <v>2.15</v>
       </c>
       <c r="L206" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P206" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="Q206" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R206" t="n">
         <v>1.72</v>
       </c>
       <c r="S206" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T206" t="n">
         <v>1.28</v>
@@ -29728,28 +29728,28 @@
         <v>2.52</v>
       </c>
       <c r="W206" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X206" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Y206" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Z206" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA206" t="n">
         <v>8.25</v>
       </c>
       <c r="AB206" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC206" t="n">
         <v>15</v>
       </c>
       <c r="AD206" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE206" t="n">
         <v>9.25</v>
@@ -29758,10 +29758,10 @@
         <v>6.5</v>
       </c>
       <c r="AG206" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH206" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI206" t="n">
         <v>600</v>
@@ -29770,16 +29770,16 @@
         <v>10.75</v>
       </c>
       <c r="AK206" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL206" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AM206" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN206" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AO206" t="n">
         <v>45</v>
